--- a/public/excel/query/Calculate-the-AVG(PM-2.5)-by-country-(show-the-results-in-a-decreasing-order).xlsx
+++ b/public/excel/query/Calculate-the-AVG(PM-2.5)-by-country-(show-the-results-in-a-decreasing-order).xlsx
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>64.01347703268416</v>
+        <v>64.01347703268421</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>53.527796886626085</v>
+        <v>53.5277968866261</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>26.07308599606078</v>
+        <v>26.073085996060776</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>17.154903836454544</v>
+        <v>17.154903836454547</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>16.898529197812003</v>
+        <v>16.898529197812017</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>15.582938710416665</v>
+        <v>15.58293871041667</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.794996527386411</v>
+        <v>12.794996527386418</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.772387699959559</v>
+        <v>12.772387699959562</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>6.937209170765432</v>
+        <v>6.93720917076543</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
